--- a/DATA_goal/Junction_Flooding_443.xlsx
+++ b/DATA_goal/Junction_Flooding_443.xlsx
@@ -447,10 +447,10 @@
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
@@ -458,16 +458,16 @@
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
     <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
@@ -967,103 +967,103 @@
         <v>44781.65277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.7</v>
+        <v>17.04</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.5</v>
+        <v>15.03</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.45</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.77</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.13</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.85</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.49</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.61</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.55</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.74</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.6</v>
+        <v>6.03</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.17</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.5</v>
+        <v>95.03</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.76</v>
+        <v>17.59</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.82</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.27</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.25</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.35</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.48</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.56</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.6</v>
+        <v>16</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_443.xlsx
+++ b/DATA_goal/Junction_Flooding_443.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,144 +652,144 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.63194444445</v>
+        <v>45124.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>4.926</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>1.074</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>9.442</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>3.413</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>8.191000000000001</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>4.526</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>2.102</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>4.543</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>5.171</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>0.877</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>3.454</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>4.766</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>2.485</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>1.205</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>48.94</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>9.632</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>2.995</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>5.545</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>4.641</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.661</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>7.552</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>1.905</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>4.889</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>2.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>4.485</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>5.812</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>2.376</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>3.752</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.63888888889</v>
+        <v>45124.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>0.377</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>0.784</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.336</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>0.765</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>3.092</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>0.238</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>0.173</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>0.731</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>0.447</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>0</v>
@@ -798,16 +798,16 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>0.544</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>0.173</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.432</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
@@ -816,358 +816,254 @@
         <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>1.052</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>0.929</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>0.073</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>3.018</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>1.327</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>0.575</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>2.898</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>0.273</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.64583333334</v>
+        <v>45124.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0</v>
+        <v>15.356</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>11.81</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>33.212</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>27.579</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>12.273</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>39.817</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0</v>
+        <v>18.383</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0</v>
+        <v>8.241</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0</v>
+        <v>12.717</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0</v>
+        <v>13.429</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>13.934</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>3.76</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>11.838</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>17.081</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>9.906000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.419</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.421</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>176.219</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0</v>
+        <v>33.156</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0</v>
+        <v>10.91</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0</v>
+        <v>22.374</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0</v>
+        <v>12.19</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0</v>
+        <v>1.586</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0</v>
+        <v>21.212</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0</v>
+        <v>9.282</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0</v>
+        <v>14.22</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0</v>
+        <v>35.664</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0</v>
+        <v>6.416</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0</v>
+        <v>13.671</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.65277777778</v>
+        <v>45124.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>5.78</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.02</v>
+        <v>4.52</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>17.04</v>
+        <v>12.37</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>15.03</v>
+        <v>10.31</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.45</v>
+        <v>4.74</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>17.77</v>
+        <v>20.61</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.13</v>
+        <v>6.81</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.85</v>
+        <v>3.12</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.49</v>
+        <v>4.85</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.97</v>
+        <v>5.04</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.61</v>
+        <v>5.14</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.81</v>
+        <v>1.38</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.55</v>
+        <v>4.36</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.74</v>
+        <v>6.46</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.03</v>
+        <v>3.7</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>1.17</v>
+        <v>0.27</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>1.74</v>
+        <v>0.13</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>95.03</v>
+        <v>61.65</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>17.59</v>
+        <v>12.59</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.89</v>
+        <v>4.01</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.82</v>
+        <v>8.52</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.27</v>
+        <v>4.7</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.96</v>
+        <v>0.6</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.25</v>
+        <v>10.53</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.35</v>
+        <v>3.53</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.48</v>
+        <v>3.73</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.88</v>
+        <v>3.66</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.56</v>
+        <v>5.38</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>16</v>
+        <v>19.01</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.65971064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>55.33</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.52</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>15.08</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.5</v>
+        <v>5.05</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_443.xlsx
+++ b/DATA_goal/Junction_Flooding_443.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,25 +443,25 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
@@ -474,8 +474,8 @@
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
-    <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,144 +652,144 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45124.50694444445</v>
+        <v>44781.63194444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.96</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.926</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.074</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>9.69</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.442</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.413</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.191000000000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.526</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.102</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.543</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.171</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.877</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.454</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>4.766</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.485</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.205</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>48.94</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.632</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.995</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.545</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.641</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.661</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.552</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.905</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.889</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.236</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.485</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.812</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.376</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45124.51388888889</v>
+        <v>44781.63888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.377</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.784</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.336</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.6879999999999999</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.765</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.092</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.238</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.173</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.731</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.447</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>0</v>
@@ -798,16 +798,16 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.544</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.173</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.432</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
@@ -816,254 +816,358 @@
         <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.052</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.07199999999999999</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.929</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.073</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.018</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.327</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.107</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.575</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.898</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.273</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45124.52083333334</v>
+        <v>44781.64583333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>15.356</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.81</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>33.212</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>27.579</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12.273</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>39.817</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>18.383</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.241</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.717</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>13.429</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.934</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.76</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.838</v>
+        <v>0</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>17.081</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.906000000000001</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.419</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.421</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>176.219</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>33.156</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.91</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>22.374</v>
+        <v>0</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.19</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.586</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>21.212</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.282</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.957000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>14.22</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>35.664</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.416</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45124.52777777778</v>
+        <v>44781.65277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.78</v>
+        <v>8.224</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.52</v>
+        <v>6.018</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.369</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>12.37</v>
+        <v>17.038</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>10.31</v>
+        <v>15.026</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.74</v>
+        <v>6.447</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>20.61</v>
+        <v>17.772</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.81</v>
+        <v>10.134</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.12</v>
+        <v>5.854</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.85</v>
+        <v>7.49</v>
       </c>
       <c r="L5" s="4" t="n">
+        <v>7.971</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>2.811</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>9.744</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>6.032</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>1.171</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>95.03400000000001</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>17.586</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>5.886</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>11.823</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>6.271</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>10.247</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>5.348</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>5.476</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>5.885</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>8.563000000000001</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>1.336</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>15.996</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>7.346</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.65971064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
         <v>5.04</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="Q5" s="4" t="n">
+      <c r="C6" s="4" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="4" t="n">
         <v>3.7</v>
       </c>
-      <c r="R5" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>61.65</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="W5" s="4" t="n">
+      <c r="R6" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>55.33</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="Z6" s="4" t="n">
         <v>8.52</v>
       </c>
-      <c r="X5" s="4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>19.01</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>5.05</v>
+      <c r="AA6" s="4" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>15.08</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_443.xlsx
+++ b/DATA_goal/Junction_Flooding_443.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,25 +443,25 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
@@ -474,8 +474,8 @@
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,144 +652,144 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.63194444445</v>
+        <v>45124.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>4.926</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>1.074</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>9.442</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>3.413</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>8.191000000000001</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>4.526</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>2.102</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>4.543</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>5.171</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>0.877</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>3.454</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>4.766</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>2.485</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>1.205</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>48.94</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>9.632</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>2.995</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>5.545</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>4.641</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.661</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>7.552</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>1.905</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>4.889</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>2.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>4.485</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>5.812</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>2.376</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>3.752</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.63888888889</v>
+        <v>45124.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>0.377</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>0.784</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.336</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>0.765</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>3.092</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>0.238</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>0.173</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>0.731</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>0.447</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>0</v>
@@ -798,16 +798,16 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>0.544</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>0.173</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.432</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
@@ -816,358 +816,254 @@
         <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>1.052</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>0.929</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>0.073</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>3.018</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>1.327</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>0.575</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>2.898</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>0.273</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.64583333334</v>
+        <v>45124.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0</v>
+        <v>15.356</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>11.81</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>33.212</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>27.579</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>12.273</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>39.817</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0</v>
+        <v>18.383</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0</v>
+        <v>8.241</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0</v>
+        <v>12.717</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0</v>
+        <v>13.429</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>13.934</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>3.76</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>11.838</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>17.081</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>9.906000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.419</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.421</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>176.219</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0</v>
+        <v>33.156</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0</v>
+        <v>10.91</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0</v>
+        <v>22.374</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0</v>
+        <v>12.19</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0</v>
+        <v>1.586</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0</v>
+        <v>21.212</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0</v>
+        <v>9.282</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0</v>
+        <v>14.22</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0</v>
+        <v>35.664</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0</v>
+        <v>6.416</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0</v>
+        <v>13.671</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.65277777778</v>
+        <v>45124.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.224</v>
+        <v>5.78</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.018</v>
+        <v>4.52</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.369</v>
+        <v>0.36</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>17.038</v>
+        <v>12.37</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>15.026</v>
+        <v>10.31</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.447</v>
+        <v>4.74</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>17.772</v>
+        <v>20.61</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.134</v>
+        <v>6.81</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.854</v>
+        <v>3.12</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.49</v>
+        <v>4.85</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.971</v>
+        <v>5.04</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.61</v>
+        <v>5.14</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.811</v>
+        <v>1.38</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.552</v>
+        <v>4.36</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.744</v>
+        <v>6.46</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.032</v>
+        <v>3.7</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>1.171</v>
+        <v>0.27</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>1.739</v>
+        <v>0.13</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>95.03400000000001</v>
+        <v>61.65</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>17.586</v>
+        <v>12.59</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.886</v>
+        <v>4.01</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.823</v>
+        <v>8.52</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.271</v>
+        <v>4.7</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.963</v>
+        <v>0.6</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.247</v>
+        <v>10.53</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.348</v>
+        <v>3.53</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.476</v>
+        <v>3.73</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.885</v>
+        <v>3.66</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.563000000000001</v>
+        <v>5.38</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>1.336</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>15.996</v>
+        <v>19.01</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.346</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.65971064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>55.33</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.52</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>15.08</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.5</v>
+        <v>5.05</v>
       </c>
     </row>
   </sheetData>
